--- a/mythril/teste_0.24.7_smartbugs-curated/teste_0.24.7_mythril_smartbugs-curatedresult_dasp.xlsx
+++ b/mythril/teste_0.24.7_smartbugs-curated/teste_0.24.7_mythril_smartbugs-curatedresult_dasp.xlsx
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -764,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -777,13 +777,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1004,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1524,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -1857,7 +1857,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -1955,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -1995,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -2035,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>2</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
@@ -2324,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -2515,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>

--- a/mythril/teste_0.24.7_smartbugs-curated/teste_0.24.7_mythril_smartbugs-curatedresult_dasp.xlsx
+++ b/mythril/teste_0.24.7_smartbugs-curated/teste_0.24.7_mythril_smartbugs-curatedresult_dasp.xlsx
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
